--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sftware Testing class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765426FA-F26F-410C-9341-793FDAD00DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA31002F-FFD1-4FED-BDF7-73169E4A418E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organisation" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Product" sheetId="3" r:id="rId4"/>
     <sheet name="DataProviderOrg" sheetId="4" r:id="rId5"/>
     <sheet name="EditOpportunities" sheetId="6" r:id="rId6"/>
+    <sheet name="ProductBard" sheetId="7" r:id="rId7"/>
+    <sheet name="ProductData" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="75">
   <si>
     <t>TC_ID</t>
   </si>
@@ -204,13 +206,64 @@
   </si>
   <si>
     <t>EditOpportunitiesWithCampaignTest</t>
+  </si>
+  <si>
+    <t>Microsoft 360</t>
+  </si>
+  <si>
+    <t>Google Search Engine</t>
+  </si>
+  <si>
+    <t>Mac Book Laptop</t>
+  </si>
+  <si>
+    <t>Microsoft 365 is a subscription-based suite of cloud-based productivity and collaboration tools from Microsoft. It includes applications like Word, Excel, PowerPoint, Outlook, Teams, and OneDrive, aimed at enhancing productivity for businesses, educational institutions, and individual users.</t>
+  </si>
+  <si>
+    <t>Google Search is a web-based search engine developed by Google. It's the most widely used search engine globally, known for its speed, simplicity, and accuracy. Google Search uses sophisticated algorithms to find, rank, and return relevant results from the web based on user queries.</t>
+  </si>
+  <si>
+    <t>The MacBook is a line of lightweight, portable laptops designed and manufactured by Apple Inc. Known for their sleek design, high-quality Retina display, powerful Intel or Apple Silicon processors, and intuitive macOS, MacBooks are popular for their performance, longevity, and seamless integration with other Apple devices.</t>
+  </si>
+  <si>
+    <t>Microsoft 361</t>
+  </si>
+  <si>
+    <t>Microsoft 362</t>
+  </si>
+  <si>
+    <t>Microsoft 363</t>
+  </si>
+  <si>
+    <t>Microsoft 364</t>
+  </si>
+  <si>
+    <t>Microsoft 365</t>
+  </si>
+  <si>
+    <t>Microsoft 366</t>
+  </si>
+  <si>
+    <t>Microsoft 367</t>
+  </si>
+  <si>
+    <t>Microsoft 368</t>
+  </si>
+  <si>
+    <t>Microsoft 369</t>
+  </si>
+  <si>
+    <t>Microsoft 370</t>
+  </si>
+  <si>
+    <t>Microsoft360</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +276,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -283,14 +341,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE802EB2-0F5B-44E9-8EF2-58120728F3AB}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
+    <sheetView zoomScale="122" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1019,16 +1082,16 @@
       <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1049,7 +1112,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -1060,4 +1123,1154 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF4B1C5-ADDA-4142-A474-66A845445D19}">
+  <dimension ref="A1:C99"/>
+  <sheetViews>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="83.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>60</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>60</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96">
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="60" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99">
+        <v>195900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24855426-3DDC-4A61-94CE-B90EBAE6B5A9}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="61.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>10900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>